--- a/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy-analysis/Z_Stack_Total.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy-analysis/Z_Stack_Total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>Overlap Surface Area</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap / Green Surface Area</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap / Red Surface Area</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +480,12 @@
       <c r="D2" t="n">
         <v>8195</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.6839425805374729</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2491790318657261</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +502,12 @@
       <c r="D3" t="n">
         <v>5366</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.6922084623323014</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2330915251292298</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +524,12 @@
       <c r="D4" t="n">
         <v>10352</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.8600864074443336</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3494699885220444</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +546,12 @@
       <c r="D5" t="n">
         <v>7296</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.8111172873818788</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2645203393517511</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +568,12 @@
       <c r="D6" t="n">
         <v>7061</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.7025171624713958</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2428881015444945</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,6 +590,12 @@
       <c r="D7" t="n">
         <v>7187</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.7677598547163764</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2985998587394574</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -566,6 +612,12 @@
       <c r="D8" t="n">
         <v>10112</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.8604492852280463</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2936888269292208</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,6 +634,12 @@
       <c r="D9" t="n">
         <v>10894</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.8211351473581066</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3317700085272262</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -598,6 +656,12 @@
       <c r="D10" t="n">
         <v>5690</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.5358319992466334</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1570565016975351</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -614,6 +678,12 @@
       <c r="D11" t="n">
         <v>5696</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.4747853630074185</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1570054301386477</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -630,6 +700,12 @@
       <c r="D12" t="n">
         <v>7550</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.6234002146808686</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1866271165492523</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -646,6 +722,12 @@
       <c r="D13" t="n">
         <v>4170</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.4385780395456458</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1470017978637149</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -662,6 +744,12 @@
       <c r="D14" t="n">
         <v>4797</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.5471655070149424</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1591995221027479</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -678,6 +766,12 @@
       <c r="D15" t="n">
         <v>3684</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.5028665028665029</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1276507276507277</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -694,6 +788,12 @@
       <c r="D16" t="n">
         <v>6371</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.656736418925884</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2290737811016827</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -710,6 +810,12 @@
       <c r="D17" t="n">
         <v>5058</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.4764057643402091</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1657925789956733</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +832,12 @@
       <c r="D18" t="n">
         <v>5647</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.487356520238198</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1946637250508463</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -742,6 +854,12 @@
       <c r="D19" t="n">
         <v>5725</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.5657114624505929</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1945888990856871</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +876,12 @@
       <c r="D20" t="n">
         <v>4196</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.4746069449157335</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1740501078480172</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -774,6 +898,12 @@
       <c r="D21" t="n">
         <v>8085</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.5376737381126554</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2239860372340426</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -790,6 +920,12 @@
       <c r="D22" t="n">
         <v>4615</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.447623666343356</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1695569108678081</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -806,6 +942,12 @@
       <c r="D23" t="n">
         <v>4776</v>
       </c>
+      <c r="E23" t="n">
+        <v>0.4215357458075905</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1771776227926992</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -822,6 +964,12 @@
       <c r="D24" t="n">
         <v>5249</v>
       </c>
+      <c r="E24" t="n">
+        <v>0.5194972288202692</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1699420468158125</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -838,6 +986,12 @@
       <c r="D25" t="n">
         <v>6534</v>
       </c>
+      <c r="E25" t="n">
+        <v>0.5202643522573454</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1892760928130703</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -854,6 +1008,12 @@
       <c r="D26" t="n">
         <v>5160</v>
       </c>
+      <c r="E26" t="n">
+        <v>0.4353695578805265</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1965564528416882</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -870,6 +1030,12 @@
       <c r="D27" t="n">
         <v>4447</v>
       </c>
+      <c r="E27" t="n">
+        <v>0.3793397594472405</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1336760152703881</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -886,6 +1052,12 @@
       <c r="D28" t="n">
         <v>4019</v>
       </c>
+      <c r="E28" t="n">
+        <v>0.4064111639195065</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1515345750697534</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -902,6 +1074,12 @@
       <c r="D29" t="n">
         <v>5093</v>
       </c>
+      <c r="E29" t="n">
+        <v>0.5102183931075936</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1813875632167533</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -918,6 +1096,12 @@
       <c r="D30" t="n">
         <v>6100</v>
       </c>
+      <c r="E30" t="n">
+        <v>0.525680799724233</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2334302770549518</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -934,6 +1118,12 @@
       <c r="D31" t="n">
         <v>4664</v>
       </c>
+      <c r="E31" t="n">
+        <v>0.4252758274824474</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1716662372556958</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -950,6 +1140,12 @@
       <c r="D32" t="n">
         <v>6142</v>
       </c>
+      <c r="E32" t="n">
+        <v>0.504725121209631</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1915663402158318</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -966,6 +1162,12 @@
       <c r="D33" t="n">
         <v>3824</v>
       </c>
+      <c r="E33" t="n">
+        <v>0.4097728246892413</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1495034795527406</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -974,13 +1176,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9690</v>
+        <v>8865</v>
       </c>
       <c r="C34" t="n">
         <v>30431</v>
       </c>
       <c r="D34" t="n">
-        <v>3959</v>
+        <v>3331</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3757473209249859</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1094607472643029</v>
       </c>
     </row>
     <row r="35">
@@ -998,6 +1206,12 @@
       <c r="D35" t="n">
         <v>6961</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.6818493486139681</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.2328638811761951</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1014,6 +1228,12 @@
       <c r="D36" t="n">
         <v>3168</v>
       </c>
+      <c r="E36" t="n">
+        <v>0.3691017126878714</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1139322448392433</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1030,6 +1250,12 @@
       <c r="D37" t="n">
         <v>4861</v>
       </c>
+      <c r="E37" t="n">
+        <v>0.613220638324713</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2127538515406162</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1046,6 +1272,12 @@
       <c r="D38" t="n">
         <v>5474</v>
       </c>
+      <c r="E38" t="n">
+        <v>0.5098733233979136</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1918211444790973</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1062,6 +1294,12 @@
       <c r="D39" t="n">
         <v>6734</v>
       </c>
+      <c r="E39" t="n">
+        <v>0.7027760384053433</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1966763047986214</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1078,6 +1316,12 @@
       <c r="D40" t="n">
         <v>4418</v>
       </c>
+      <c r="E40" t="n">
+        <v>0.3957717459464302</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1638541705299855</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1093,6 +1337,12 @@
       </c>
       <c r="D41" t="n">
         <v>3508</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3992715684042795</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.15518004069716</v>
       </c>
     </row>
   </sheetData>
